--- a/medicine/Pharmacie/1651_en_santé_et_médecine/1651_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1651_en_santé_et_médecine/1651_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1651_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1651_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1651 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1651_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1651_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>France
-Les mauvaises récoltes provoquent la famine, des troubles et une importante mortalité[1].</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les mauvaises récoltes provoquent la famine, des troubles et une importante mortalité.</t>
         </is>
       </c>
     </row>
@@ -524,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1651_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1651_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +559,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jean Pecquet (1622-1674) publie Experimenta nova Anatomica qui inclut ses découvertes sur le système lymphatique[2].
-William Harvey (1578-1657) fait éditer Exercitationes de generatione animalium: Quibus accedunt quaedam de partu: de membranis ac humoribus uteri: &amp; de conceptione. Il y décrit la formation des organes lors du développement de l'embryon[3].
-Nicholas Culpeper (1616-1654) publie son traité Semiotica uranica or, An Astrological Judgement of Diseases from the Decumbiture of the Sick[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jean Pecquet (1622-1674) publie Experimenta nova Anatomica qui inclut ses découvertes sur le système lymphatique.
+William Harvey (1578-1657) fait éditer Exercitationes de generatione animalium: Quibus accedunt quaedam de partu: de membranis ac humoribus uteri: &amp; de conceptione. Il y décrit la formation des organes lors du développement de l'embryon.
+Nicholas Culpeper (1616-1654) publie son traité Semiotica uranica or, An Astrological Judgement of Diseases from the Decumbiture of the Sick.</t>
         </is>
       </c>
     </row>
@@ -556,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1651_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1651_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +593,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>20 janvier : Edward Tyson (mort en 1708), médecin et anatomiste britannique[5].
-16 septembre : Engelbert Kaempfer (mort en 1716), médecin et voyageur allemand[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>20 janvier : Edward Tyson (mort en 1708), médecin et anatomiste britannique.
+16 septembre : Engelbert Kaempfer (mort en 1716), médecin et voyageur allemand.</t>
         </is>
       </c>
     </row>
@@ -587,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1651_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1651_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +626,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Septembre : Arthur Dee (né en 1579), médecin et alchimiste anglais, frère aîné de John Dee.</t>
         </is>
